--- a/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2701EA-F20E-4BDC-90C0-50B88287A445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6351ABC9-87BC-4E0D-B625-4DAE81A1CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E9E4AAE-729D-414B-B96D-6CBABEADB9E8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDF1215C-F61B-44C3-B6B1-650997FCE331}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="261">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,799 +77,751 @@
     <t>2,5%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED7A177-0CB2-4A48-87D4-3C2C6548446A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0101261C-B2F5-461D-9EBC-0861F7D8E36F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,10 +1530,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -1590,13 +1542,13 @@
         <v>107626</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1563,13 @@
         <v>1261103</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1290</v>
@@ -1626,13 +1578,13 @@
         <v>1318914</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>2519</v>
@@ -1641,13 +1593,13 @@
         <v>2580017</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,7 +1655,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1715,13 +1667,13 @@
         <v>13712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1730,13 +1682,13 @@
         <v>8473</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1745,13 +1697,13 @@
         <v>22185</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,16 +1715,16 @@
         <v>416</v>
       </c>
       <c r="D11" s="7">
-        <v>437217</v>
+        <v>437216</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
@@ -1781,13 +1733,13 @@
         <v>400310</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>796</v>
@@ -1796,13 +1748,13 @@
         <v>837527</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,7 +1766,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450929</v>
+        <v>450928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1870,13 +1822,13 @@
         <v>84321</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -1885,13 +1837,13 @@
         <v>95091</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -1900,13 +1852,13 @@
         <v>179412</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1873,13 @@
         <v>2370421</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>2584</v>
@@ -1936,13 +1888,13 @@
         <v>2645846</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>4907</v>
@@ -1951,13 +1903,13 @@
         <v>5016267</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E57DE2-1C88-4C07-8FDB-12834A11A4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECE896D-6444-4A17-AACF-7C22FEE2393E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2162,7 +2114,7 @@
         <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2171,13 +2123,13 @@
         <v>21162</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -2186,13 +2138,13 @@
         <v>34797</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2159,13 @@
         <v>765539</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1032</v>
@@ -2222,13 +2174,13 @@
         <v>1107080</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1753</v>
@@ -2237,13 +2189,13 @@
         <v>1872619</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2263,13 @@
         <v>64067</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -2326,13 +2278,13 @@
         <v>73135</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -2341,13 +2293,13 @@
         <v>137202</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2314,13 @@
         <v>1624211</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1409</v>
@@ -2377,13 +2329,13 @@
         <v>1517143</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>2946</v>
@@ -2392,13 +2344,13 @@
         <v>3141354</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,7 +2406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2466,13 +2418,13 @@
         <v>19692</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2481,13 +2433,13 @@
         <v>18642</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2496,13 +2448,13 @@
         <v>38334</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2469,13 @@
         <v>422442</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>365</v>
@@ -2532,13 +2484,13 @@
         <v>405081</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>747</v>
@@ -2547,13 +2499,13 @@
         <v>827523</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,10 +2573,10 @@
         <v>97394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>32</v>
@@ -2636,13 +2588,13 @@
         <v>112940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -2651,13 +2603,13 @@
         <v>210334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2624,13 @@
         <v>2812192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>2806</v>
@@ -2687,13 +2639,13 @@
         <v>3029302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>5446</v>
@@ -2702,13 +2654,13 @@
         <v>5841494</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE8D61C-4FAB-4B54-9AC5-700D99EF3084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E04D561-21A5-4791-8324-AF51D9E89A5E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2800,7 +2752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2907,13 +2859,13 @@
         <v>5948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2922,13 +2874,13 @@
         <v>17592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2937,13 +2889,13 @@
         <v>23541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2910,13 @@
         <v>451471</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>566</v>
@@ -2973,13 +2925,13 @@
         <v>621282</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>1021</v>
@@ -2988,13 +2940,13 @@
         <v>1072753</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3014,13 @@
         <v>61424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -3077,13 +3029,13 @@
         <v>67901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -3092,13 +3044,13 @@
         <v>129325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3065,13 @@
         <v>1635181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>1577</v>
@@ -3128,13 +3080,13 @@
         <v>1640818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>3117</v>
@@ -3143,13 +3095,13 @@
         <v>3275999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3157,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3217,13 +3169,13 @@
         <v>8392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3232,13 +3184,13 @@
         <v>15638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3247,13 +3199,13 @@
         <v>24031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3220,13 @@
         <v>490852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
@@ -3283,13 +3235,13 @@
         <v>492682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>925</v>
@@ -3298,13 +3250,13 @@
         <v>983533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3324,13 @@
         <v>75765</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -3387,13 +3339,13 @@
         <v>101132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -3402,13 +3354,13 @@
         <v>176897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3375,13 @@
         <v>2577504</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>2617</v>
@@ -3438,13 +3390,13 @@
         <v>2754781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>5063</v>
@@ -3453,13 +3405,13 @@
         <v>5332285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E784A5A7-B279-461E-89B7-E32A5CA63271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFF007B-EA3D-460E-91B4-8E39E77F0D09}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3658,13 +3610,13 @@
         <v>12646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3673,13 +3625,13 @@
         <v>22594</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3688,13 +3640,13 @@
         <v>35241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3661,13 @@
         <v>498037</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>1331</v>
@@ -3724,13 +3676,13 @@
         <v>776130</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>1967</v>
@@ -3739,13 +3691,13 @@
         <v>1274166</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3765,13 @@
         <v>71852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -3828,13 +3780,13 @@
         <v>92525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -3843,13 +3795,13 @@
         <v>164377</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3816,13 @@
         <v>2024768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
@@ -3879,13 +3831,13 @@
         <v>2113629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>4612</v>
@@ -3894,13 +3846,13 @@
         <v>4138398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3908,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3968,13 +3920,13 @@
         <v>20863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -3983,13 +3935,13 @@
         <v>36305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3998,13 +3950,13 @@
         <v>57168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +3971,13 @@
         <v>640438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>946</v>
@@ -4034,13 +3986,13 @@
         <v>667756</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>1595</v>
@@ -4049,13 +4001,13 @@
         <v>1308194</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4075,13 @@
         <v>105361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -4138,13 +4090,13 @@
         <v>151425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>274</v>
@@ -4153,13 +4105,13 @@
         <v>256786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4126,13 @@
         <v>3163243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>5026</v>
@@ -4189,13 +4141,13 @@
         <v>3557515</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>8174</v>
@@ -4204,13 +4156,13 @@
         <v>6720758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6351ABC9-87BC-4E0D-B625-4DAE81A1CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE099A0-2BDB-46D4-B227-2FFE8544B966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDF1215C-F61B-44C3-B6B1-650997FCE331}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D2782A-FE8D-49D9-AAB6-615ABA93CB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,630 +77,672 @@
     <t>2,5%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
     <t>96,49%</t>
   </si>
   <si>
@@ -752,9 +794,6 @@
     <t>4,77%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
     <t>7,13%</t>
   </si>
   <si>
@@ -767,9 +806,6 @@
     <t>95,23%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
     <t>92,87%</t>
   </si>
   <si>
@@ -794,12 +830,6 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
     <t>96,78%</t>
   </si>
   <si>
@@ -816,12 +846,6 @@
   </si>
   <si>
     <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0101261C-B2F5-461D-9EBC-0861F7D8E36F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998FDB5A-BBBD-4505-978D-7B20D7E1A618}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1530,10 +1554,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -1542,13 +1566,13 @@
         <v>107626</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1587,13 @@
         <v>1261103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1290</v>
@@ -1578,13 +1602,13 @@
         <v>1318914</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2519</v>
@@ -1593,13 +1617,13 @@
         <v>2580017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,7 +1679,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1667,13 +1691,13 @@
         <v>13712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1682,13 +1706,13 @@
         <v>8473</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1697,13 +1721,13 @@
         <v>22185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,16 +1739,16 @@
         <v>416</v>
       </c>
       <c r="D11" s="7">
-        <v>437216</v>
+        <v>437217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
@@ -1733,13 +1757,13 @@
         <v>400310</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>796</v>
@@ -1748,13 +1772,13 @@
         <v>837527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1790,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450928</v>
+        <v>450929</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1822,13 +1846,13 @@
         <v>84321</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -1837,13 +1861,13 @@
         <v>95091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -1852,13 +1876,13 @@
         <v>179412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1897,13 @@
         <v>2370421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2584</v>
@@ -1888,13 +1912,13 @@
         <v>2645846</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4907</v>
@@ -1903,13 +1927,13 @@
         <v>5016267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,7 +1989,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECE896D-6444-4A17-AACF-7C22FEE2393E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF8E4E5-8F4C-4A65-A08D-2955348ED88D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2001,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2108,13 +2132,13 @@
         <v>13635</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2123,13 +2147,13 @@
         <v>21162</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -2138,13 +2162,13 @@
         <v>34797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2183,13 @@
         <v>765539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>1032</v>
@@ -2174,13 +2198,13 @@
         <v>1107080</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>1753</v>
@@ -2189,13 +2213,13 @@
         <v>1872619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2287,13 @@
         <v>64067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -2278,13 +2302,13 @@
         <v>73135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -2293,13 +2317,13 @@
         <v>137202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2338,13 @@
         <v>1624211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1409</v>
@@ -2329,13 +2353,13 @@
         <v>1517143</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>2946</v>
@@ -2344,13 +2368,13 @@
         <v>3141354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2430,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2418,13 +2442,13 @@
         <v>19692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2433,13 +2457,13 @@
         <v>18642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2448,13 +2472,13 @@
         <v>38334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2493,13 @@
         <v>422442</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>365</v>
@@ -2484,13 +2508,13 @@
         <v>405081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>747</v>
@@ -2499,13 +2523,13 @@
         <v>827523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2597,13 @@
         <v>97394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -2588,13 +2612,13 @@
         <v>112940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -2603,13 +2627,13 @@
         <v>210334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2648,13 @@
         <v>2812192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>2806</v>
@@ -2639,13 +2663,13 @@
         <v>3029302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>5446</v>
@@ -2654,13 +2678,13 @@
         <v>5841494</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2740,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E04D561-21A5-4791-8324-AF51D9E89A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F584BF-95CD-4365-B0F7-8923DA83F2B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2752,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2859,13 +2883,13 @@
         <v>5948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2874,13 +2898,13 @@
         <v>17592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2889,13 +2913,13 @@
         <v>23541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2934,13 @@
         <v>451471</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>566</v>
@@ -2925,13 +2949,13 @@
         <v>621282</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1021</v>
@@ -2940,13 +2964,13 @@
         <v>1072753</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3038,13 @@
         <v>61424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -3029,13 +3053,13 @@
         <v>67901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -3044,13 +3068,13 @@
         <v>129325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3089,13 @@
         <v>1635181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>1577</v>
@@ -3080,13 +3104,13 @@
         <v>1640818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>3117</v>
@@ -3095,13 +3119,13 @@
         <v>3275999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3181,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3169,13 +3193,13 @@
         <v>8392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3184,13 +3208,13 @@
         <v>15638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3199,13 +3223,13 @@
         <v>24031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3244,13 @@
         <v>490852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
@@ -3235,13 +3259,13 @@
         <v>492682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>925</v>
@@ -3250,13 +3274,13 @@
         <v>983533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3348,13 @@
         <v>75765</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -3339,13 +3363,13 @@
         <v>101132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -3354,13 +3378,13 @@
         <v>176897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3399,13 @@
         <v>2577504</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>2617</v>
@@ -3390,13 +3414,13 @@
         <v>2754781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>5063</v>
@@ -3405,13 +3429,13 @@
         <v>5332285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3486,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFF007B-EA3D-460E-91B4-8E39E77F0D09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3BC288-94C1-4277-B2BD-312171EE63E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3503,7 +3527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3610,13 +3634,13 @@
         <v>12646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3625,13 +3649,13 @@
         <v>22594</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3640,13 +3664,13 @@
         <v>35241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3685,13 @@
         <v>498037</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>1331</v>
@@ -3676,13 +3700,13 @@
         <v>776130</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>1967</v>
@@ -3691,13 +3715,13 @@
         <v>1274166</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3789,13 @@
         <v>71852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -3780,13 +3804,13 @@
         <v>92525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -3795,13 +3819,13 @@
         <v>164377</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3840,13 @@
         <v>2024768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
@@ -3831,13 +3855,13 @@
         <v>2113629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>4612</v>
@@ -3846,13 +3870,13 @@
         <v>4138398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +3932,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3920,13 +3944,13 @@
         <v>20863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -3935,13 +3959,13 @@
         <v>36305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3950,13 +3974,13 @@
         <v>57168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3995,13 @@
         <v>640438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>946</v>
@@ -3986,13 +4010,13 @@
         <v>667756</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>1595</v>
@@ -4001,13 +4025,13 @@
         <v>1308194</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,10 +4099,10 @@
         <v>105361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>32</v>
@@ -4090,13 +4114,13 @@
         <v>151425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>274</v>
@@ -4105,13 +4129,13 @@
         <v>256786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4150,13 @@
         <v>3163243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>5026</v>
@@ -4141,13 +4165,13 @@
         <v>3557515</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>8174</v>
@@ -4156,13 +4180,13 @@
         <v>6720758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4242,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE099A0-2BDB-46D4-B227-2FFE8544B966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D985B05-BEFD-473C-A720-1C726BE62E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D2782A-FE8D-49D9-AAB6-615ABA93CB1E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9B03B1-D51A-4216-AAAD-9C90AEB826BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,781 +71,805 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998FDB5A-BBBD-4505-978D-7B20D7E1A618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06293137-E191-422A-8656-05AF3AB637E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1691,13 +1715,13 @@
         <v>13712</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1706,13 +1730,13 @@
         <v>8473</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1721,13 +1745,13 @@
         <v>22185</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,13 +1766,13 @@
         <v>437217</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
@@ -1757,13 +1781,13 @@
         <v>400310</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>796</v>
@@ -1772,13 +1796,13 @@
         <v>837527</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1870,13 @@
         <v>84321</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -1861,13 +1885,13 @@
         <v>95091</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -1876,13 +1900,13 @@
         <v>179412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1921,13 @@
         <v>2370421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>2584</v>
@@ -1912,13 +1936,13 @@
         <v>2645846</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>4907</v>
@@ -1927,13 +1951,13 @@
         <v>5016267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,7 +2013,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF8E4E5-8F4C-4A65-A08D-2955348ED88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95C6F2A-1D30-4CEB-AB1C-F51DE2EFA3EB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2025,7 +2049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2132,13 +2156,13 @@
         <v>13635</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2147,13 +2171,13 @@
         <v>21162</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -2162,13 +2186,13 @@
         <v>34797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2207,13 @@
         <v>765539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1032</v>
@@ -2198,13 +2222,13 @@
         <v>1107080</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1753</v>
@@ -2213,13 +2237,13 @@
         <v>1872619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2311,13 @@
         <v>64067</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -2302,13 +2326,13 @@
         <v>73135</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -2317,13 +2341,13 @@
         <v>137202</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2362,13 @@
         <v>1624211</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1409</v>
@@ -2353,13 +2377,13 @@
         <v>1517143</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>2946</v>
@@ -2368,10 +2392,10 @@
         <v>3141354</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>120</v>
@@ -2603,7 +2627,7 @@
         <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -2612,10 +2636,10 @@
         <v>112940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>142</v>
@@ -2630,7 +2654,7 @@
         <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>144</v>
@@ -2651,10 +2675,10 @@
         <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>2806</v>
@@ -2663,13 +2687,13 @@
         <v>3029302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>5446</v>
@@ -2684,7 +2708,7 @@
         <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2764,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F584BF-95CD-4365-B0F7-8923DA83F2B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDF0E35-C172-42D2-B9A4-F4F1D905310F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3041,10 +3065,10 @@
         <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -3053,13 +3077,13 @@
         <v>67901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -3068,13 +3092,13 @@
         <v>129325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3113,13 @@
         <v>1635181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>1577</v>
@@ -3104,13 +3128,13 @@
         <v>1640818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>3117</v>
@@ -3119,13 +3143,13 @@
         <v>3275999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3217,13 @@
         <v>8392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3208,13 +3232,13 @@
         <v>15638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3223,13 +3247,13 @@
         <v>24031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3268,13 @@
         <v>490852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
@@ -3259,13 +3283,13 @@
         <v>492682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>925</v>
@@ -3274,13 +3298,13 @@
         <v>983533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3372,13 @@
         <v>75765</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -3363,13 +3387,13 @@
         <v>101132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -3378,13 +3402,13 @@
         <v>176897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3423,13 @@
         <v>2577504</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>2617</v>
@@ -3414,13 +3438,13 @@
         <v>2754781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>5063</v>
@@ -3429,13 +3453,13 @@
         <v>5332285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,7 +3515,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3BC288-94C1-4277-B2BD-312171EE63E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF98ADA-02B3-46F1-B25F-01DE9554E92C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3527,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3634,13 +3658,13 @@
         <v>12646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3649,13 +3673,13 @@
         <v>22594</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3664,13 +3688,13 @@
         <v>35241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,10 +3709,10 @@
         <v>498037</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>229</v>
@@ -3715,13 +3739,13 @@
         <v>1274166</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,10 +3846,10 @@
         <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3864,13 @@
         <v>2024768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
@@ -3855,13 +3879,13 @@
         <v>2113629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>4612</v>
@@ -3870,13 +3894,13 @@
         <v>4138398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3968,13 @@
         <v>20863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -3959,13 +3983,13 @@
         <v>36305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3977,10 +4001,10 @@
         <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4019,13 @@
         <v>640438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>946</v>
@@ -4010,13 +4034,13 @@
         <v>667756</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>1595</v>
@@ -4025,13 +4049,13 @@
         <v>1308194</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4123,13 @@
         <v>105361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -4114,13 +4138,13 @@
         <v>151425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>274</v>
@@ -4129,13 +4153,13 @@
         <v>256786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4174,13 @@
         <v>3163243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>5026</v>
@@ -4165,13 +4189,13 @@
         <v>3557515</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>8174</v>
@@ -4180,13 +4204,13 @@
         <v>6720758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4266,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D985B05-BEFD-473C-A720-1C726BE62E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DE54D6-5A84-491D-BA10-797B82CED59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9B03B1-D51A-4216-AAAD-9C90AEB826BA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{89A6080C-91CF-40A1-A7B1-F19D24243303}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -704,31 +704,37 @@
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>97,17%</t>
@@ -737,139 +743,109 @@
     <t>96,14%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06293137-E191-422A-8656-05AF3AB637E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE9FADA-75BB-43C1-910D-15DC4C0C34C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95C6F2A-1D30-4CEB-AB1C-F51DE2EFA3EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E78D67E-0978-4922-9330-5FE8F8546CAA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2210,7 @@
         <v>1753</v>
       </c>
       <c r="N5" s="7">
-        <v>1872619</v>
+        <v>1872618</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>100</v>
@@ -2285,7 +2261,7 @@
         <v>1785</v>
       </c>
       <c r="N6" s="7">
-        <v>1907416</v>
+        <v>1907415</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2389,7 +2365,7 @@
         <v>2946</v>
       </c>
       <c r="N8" s="7">
-        <v>3141354</v>
+        <v>3141353</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>118</v>
@@ -2440,7 +2416,7 @@
         <v>3074</v>
       </c>
       <c r="N9" s="7">
-        <v>3278556</v>
+        <v>3278555</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2684,7 +2660,7 @@
         <v>2806</v>
       </c>
       <c r="I14" s="7">
-        <v>3029302</v>
+        <v>3029303</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>117</v>
@@ -2735,7 +2711,7 @@
         <v>2911</v>
       </c>
       <c r="I15" s="7">
-        <v>3142242</v>
+        <v>3142243</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2783,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDF0E35-C172-42D2-B9A4-F4F1D905310F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD4A79D-A3DC-4EAE-96F6-E4477E84A1BF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2985,7 +2961,7 @@
         <v>1021</v>
       </c>
       <c r="N5" s="7">
-        <v>1072753</v>
+        <v>1072752</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>167</v>
@@ -3036,7 +3012,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3534,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF98ADA-02B3-46F1-B25F-01DE9554E92C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1585A1B6-ADBD-494E-BB93-7489337A8D7E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3655,7 +3631,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>12646</v>
+        <v>11524</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>221</v>
@@ -3664,37 +3640,37 @@
         <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>22594</v>
+        <v>20442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>35241</v>
+        <v>31966</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,46 +3682,46 @@
         <v>636</v>
       </c>
       <c r="D5" s="7">
-        <v>498037</v>
+        <v>472917</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>1331</v>
       </c>
       <c r="I5" s="7">
-        <v>776130</v>
+        <v>701174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>1967</v>
       </c>
       <c r="N5" s="7">
-        <v>1274166</v>
+        <v>1174091</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,7 +3733,7 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3748,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3787,7 +3763,7 @@
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3810,46 +3786,46 @@
         <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>71852</v>
+        <v>74665</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
       </c>
       <c r="I7" s="7">
-        <v>92525</v>
+        <v>83267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
       </c>
       <c r="N7" s="7">
-        <v>164377</v>
+        <v>157932</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,46 +3837,46 @@
         <v>1863</v>
       </c>
       <c r="D8" s="7">
-        <v>2024768</v>
+        <v>2155872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
       </c>
       <c r="I8" s="7">
-        <v>2113629</v>
+        <v>2114639</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>4612</v>
       </c>
       <c r="N8" s="7">
-        <v>4138398</v>
+        <v>4270510</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3888,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3927,7 +3903,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3942,7 +3918,7 @@
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3965,46 +3941,46 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>20863</v>
+        <v>20075</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>36305</v>
+        <v>34650</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>57168</v>
+        <v>54725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,46 +3992,46 @@
         <v>649</v>
       </c>
       <c r="D11" s="7">
-        <v>640438</v>
+        <v>611241</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>946</v>
       </c>
       <c r="I11" s="7">
-        <v>667756</v>
+        <v>616961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1595</v>
       </c>
       <c r="N11" s="7">
-        <v>1308194</v>
+        <v>1228202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4043,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4082,7 +4058,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4097,7 +4073,7 @@
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4120,46 +4096,46 @@
         <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>105361</v>
+        <v>106265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>151425</v>
+        <v>138358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>274</v>
       </c>
       <c r="N13" s="7">
-        <v>256786</v>
+        <v>244623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,46 +4147,46 @@
         <v>3148</v>
       </c>
       <c r="D14" s="7">
-        <v>3163243</v>
+        <v>3240028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>5026</v>
       </c>
       <c r="I14" s="7">
-        <v>3557515</v>
+        <v>3432775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>8174</v>
       </c>
       <c r="N14" s="7">
-        <v>6720758</v>
+        <v>6672803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4198,7 @@
         <v>3241</v>
       </c>
       <c r="D15" s="7">
-        <v>3268604</v>
+        <v>3346293</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4237,7 +4213,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4252,7 +4228,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977544</v>
+        <v>6917426</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
